--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 24,57</t>
+          <t>15,06; 24,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,73; 56,45</t>
+          <t>44,18; 56,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,43; 43,91</t>
+          <t>30,08; 43,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 28,22</t>
+          <t>9,74; 29,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,35</t>
+          <t>11,83; 20,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,13; 57,23</t>
+          <t>46,56; 57,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,66; 52,91</t>
+          <t>40,55; 52,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 34,5</t>
+          <t>16,31; 35,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 20,81</t>
+          <t>14,45; 21,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,02; 55,18</t>
+          <t>47,24; 55,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 46,53</t>
+          <t>37,04; 45,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 28,48</t>
+          <t>14,87; 28,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,09; 34,22</t>
+          <t>24,9; 34,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,13; 60,1</t>
+          <t>51,18; 60,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 61,53</t>
+          <t>50,98; 61,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,25; 38,47</t>
+          <t>21,75; 38,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 39,07</t>
+          <t>29,96; 38,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 79,74</t>
+          <t>72,03; 79,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 69,66</t>
+          <t>60,66; 69,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 39,87</t>
+          <t>27,09; 39,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,15; 35,42</t>
+          <t>29,1; 35,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 69,44</t>
+          <t>63,06; 69,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,99; 64,62</t>
+          <t>57,91; 64,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 37,52</t>
+          <t>26,96; 37,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,23; 31,07</t>
+          <t>23,38; 31,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,02; 76,32</t>
+          <t>69,31; 76,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,37; 65,1</t>
+          <t>56,77; 65,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,25; 38,43</t>
+          <t>28,39; 38,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,46; 33,52</t>
+          <t>26,67; 34,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,37; 80,07</t>
+          <t>73,29; 80,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,21; 68,79</t>
+          <t>60,72; 68,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 33,13</t>
+          <t>24,55; 33,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 31,24</t>
+          <t>25,96; 31,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,39; 77,43</t>
+          <t>72,36; 77,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,36; 65,91</t>
+          <t>60,38; 66,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 34,4</t>
+          <t>27,0; 34,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,9</t>
+          <t>12,62; 19,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 59,37</t>
+          <t>50,43; 60,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 45,55</t>
+          <t>36,61; 46,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,95</t>
+          <t>21,4; 29,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,4</t>
+          <t>15,34; 23,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 49,8</t>
+          <t>40,11; 49,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,86; 44,98</t>
+          <t>36,35; 45,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 26,26</t>
+          <t>20,48; 26,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 20,83</t>
+          <t>15,29; 20,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,16; 53,04</t>
+          <t>46,36; 52,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,5; 43,81</t>
+          <t>37,47; 44,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 26,82</t>
+          <t>21,66; 26,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,25</t>
+          <t>11,01; 18,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,77; 35,09</t>
+          <t>25,73; 35,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 28,35</t>
+          <t>19,43; 28,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 24,53</t>
+          <t>15,8; 24,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,4; 25,32</t>
+          <t>16,5; 25,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,43; 37,13</t>
+          <t>26,94; 36,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 31,19</t>
+          <t>22,28; 31,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 22,99</t>
+          <t>16,71; 22,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,76</t>
+          <t>15,0; 20,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,7; 34,52</t>
+          <t>27,56; 34,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,7</t>
+          <t>22,08; 28,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,56</t>
+          <t>17,06; 22,25</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,0</t>
+          <t>16,83; 23,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 41,79</t>
+          <t>32,42; 41,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,13; 32,35</t>
+          <t>25,06; 32,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,5</t>
+          <t>17,46; 22,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,1; 31,43</t>
+          <t>24,3; 31,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,94; 42,32</t>
+          <t>35,15; 42,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,3; 42,4</t>
+          <t>34,48; 41,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,84; 57,21</t>
+          <t>30,04; 58,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,44</t>
+          <t>22,0; 27,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,22; 40,72</t>
+          <t>35,41; 41,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,4; 36,93</t>
+          <t>31,46; 37,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,52; 45,21</t>
+          <t>25,43; 46,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,2; 23,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>50,03; 53,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,67; 43,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,96; 25,85</t>
+          <t>22,02; 25,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,38; 27,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,29; 56,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,08; 48,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,35</t>
+          <t>27,04; 39,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>22,92; 25,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,66; 54,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,19; 45,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,43</t>
+          <t>25,55; 33,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,77</t>
+          <t>15,12; 25,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,18; 56,13</t>
+          <t>43,82; 56,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 43,07</t>
+          <t>29,8; 43,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 20,16</t>
+          <t>12,49; 20,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 57,62</t>
+          <t>46,15; 57,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,55; 52,45</t>
+          <t>40,43; 52,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,12</t>
+          <t>14,49; 20,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,24; 55,2</t>
+          <t>47,35; 56,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,93</t>
+          <t>37,35; 46,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,9; 34,02</t>
+          <t>25,36; 34,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 60,64</t>
+          <t>50,56; 60,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 61,8</t>
+          <t>50,74; 62,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 38,6</t>
+          <t>30,35; 38,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,03; 79,76</t>
+          <t>72,14; 79,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,66; 69,81</t>
+          <t>60,66; 69,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,1; 35,41</t>
+          <t>29,13; 35,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,06; 69,59</t>
+          <t>63,07; 69,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,91; 64,31</t>
+          <t>57,7; 64,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,32</t>
+          <t>23,18; 30,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,31; 76,62</t>
+          <t>68,93; 76,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,77; 65,26</t>
+          <t>56,85; 65,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,67; 34,07</t>
+          <t>26,65; 33,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,29; 80,41</t>
+          <t>73,29; 80,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,72; 68,74</t>
+          <t>61,2; 68,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,14</t>
+          <t>25,92; 31,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,36; 77,37</t>
+          <t>72,28; 77,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,38; 66,19</t>
+          <t>60,22; 66,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 19,98</t>
+          <t>12,65; 19,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,43; 60,04</t>
+          <t>50,0; 59,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 46,26</t>
+          <t>36,39; 45,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 23,29</t>
+          <t>15,93; 23,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 49,04</t>
+          <t>40,33; 49,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,35; 45,02</t>
+          <t>35,62; 44,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 20,6</t>
+          <t>15,18; 20,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 52,91</t>
+          <t>46,17; 53,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,47; 44,08</t>
+          <t>37,61; 44,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 18,9</t>
+          <t>11,38; 19,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,73; 35,11</t>
+          <t>25,49; 35,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,43; 28,64</t>
+          <t>19,11; 28,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,17</t>
+          <t>16,59; 25,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,94; 36,92</t>
+          <t>27,31; 37,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,28; 31,41</t>
+          <t>22,2; 31,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,8</t>
+          <t>14,99; 20,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,56; 34,38</t>
+          <t>27,67; 34,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,08; 28,55</t>
+          <t>22,15; 28,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 23,66</t>
+          <t>17,0; 23,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,42; 41,5</t>
+          <t>32,75; 41,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,13</t>
+          <t>25,12; 32,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,3; 31,27</t>
+          <t>24,63; 31,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,15; 42,46</t>
+          <t>35,3; 42,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,48; 41,86</t>
+          <t>34,57; 42,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 27,17</t>
+          <t>22,21; 27,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,41; 41,01</t>
+          <t>35,4; 41,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,46; 37,0</t>
+          <t>31,43; 36,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,55</t>
+          <t>20,26; 23,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,03; 53,87</t>
+          <t>49,81; 53,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,67; 43,69</t>
+          <t>39,43; 43,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 27,69</t>
+          <t>24,67; 27,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 56,03</t>
+          <t>52,33; 56,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,08; 48,89</t>
+          <t>45,1; 49,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 25,37</t>
+          <t>23,04; 25,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 54,35</t>
+          <t>51,69; 54,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,19; 45,93</t>
+          <t>43,05; 45,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 25,15</t>
+          <t>14,94; 24,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,82; 56,23</t>
+          <t>43,73; 56,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,8; 43,02</t>
+          <t>30,43; 43,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 29,86</t>
+          <t>9,14; 28,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,77</t>
+          <t>12,09; 20,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,15; 57,45</t>
+          <t>46,13; 57,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 52,72</t>
+          <t>40,66; 52,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,31; 35,28</t>
+          <t>16,0; 34,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,7</t>
+          <t>14,1; 20,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,35; 56,02</t>
+          <t>47,02; 55,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 46,62</t>
+          <t>37,61; 46,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 28,13</t>
+          <t>14,99; 28,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,36; 34,79</t>
+          <t>25,09; 34,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 60,05</t>
+          <t>51,13; 60,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 62,11</t>
+          <t>50,58; 61,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,75; 38,53</t>
+          <t>22,25; 38,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 38,68</t>
+          <t>30,12; 39,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 79,56</t>
+          <t>72,14; 79,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,66; 69,42</t>
+          <t>60,51; 69,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 39,16</t>
+          <t>27,29; 39,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,38</t>
+          <t>29,15; 35,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,07; 69,39</t>
+          <t>63,28; 69,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,7; 64,66</t>
+          <t>57,99; 64,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 37,17</t>
+          <t>27,31; 37,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,96</t>
+          <t>23,23; 31,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,93; 76,19</t>
+          <t>69,02; 76,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,85; 65,18</t>
+          <t>56,37; 65,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,39; 38,43</t>
+          <t>28,25; 38,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 33,76</t>
+          <t>26,46; 33,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,29; 80,19</t>
+          <t>73,37; 80,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,2; 68,62</t>
+          <t>61,21; 68,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 33,36</t>
+          <t>24,0; 33,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 31,44</t>
+          <t>25,8; 31,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,28; 77,26</t>
+          <t>72,39; 77,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,22; 66,28</t>
+          <t>60,36; 65,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 34,13</t>
+          <t>27,68; 34,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,95</t>
+          <t>12,61; 19,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 59,87</t>
+          <t>50,14; 59,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,39; 45,49</t>
+          <t>36,56; 45,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,4; 29,6</t>
+          <t>21,01; 29,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,45</t>
+          <t>15,4; 23,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,33; 49,39</t>
+          <t>39,97; 49,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,62; 44,67</t>
+          <t>35,86; 44,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 26,96</t>
+          <t>20,04; 26,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 20,5</t>
+          <t>15,3; 20,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,17; 53,25</t>
+          <t>46,16; 53,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,61; 44,35</t>
+          <t>37,5; 43,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 26,82</t>
+          <t>21,68; 26,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 19,44</t>
+          <t>10,97; 19,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,49; 35,47</t>
+          <t>24,77; 35,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 28,94</t>
+          <t>19,18; 28,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,8; 24,04</t>
+          <t>15,9; 24,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 25,37</t>
+          <t>16,4; 25,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,31; 37,25</t>
+          <t>27,43; 37,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 31,67</t>
+          <t>21,95; 31,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,94</t>
+          <t>16,35; 22,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,84</t>
+          <t>15,03; 20,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 34,89</t>
+          <t>27,7; 34,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,15; 28,78</t>
+          <t>22,31; 28,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 22,25</t>
+          <t>17,57; 22,56</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,82</t>
+          <t>16,89; 24,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,57</t>
+          <t>32,7; 41,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,12; 32,33</t>
+          <t>25,13; 32,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 22,38</t>
+          <t>17,3; 22,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 31,43</t>
+          <t>24,1; 31,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,3; 42,68</t>
+          <t>34,94; 42,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,57; 42,02</t>
+          <t>34,3; 42,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,04; 58,71</t>
+          <t>29,84; 57,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,21; 27,23</t>
+          <t>22,37; 27,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,4; 41,07</t>
+          <t>35,22; 40,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,43; 36,75</t>
+          <t>31,4; 36,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,43; 46,87</t>
+          <t>25,52; 45,21</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,26; 23,58</t>
+          <t>20,06; 23,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,81; 53,81</t>
+          <t>49,73; 53,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,43; 43,5</t>
+          <t>39,59; 43,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,87</t>
+          <t>21,96; 25,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,99</t>
+          <t>24,55; 27,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,33; 56,06</t>
+          <t>52,37; 55,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,09</t>
+          <t>45,03; 48,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,04; 39,87</t>
+          <t>27,01; 39,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,04; 25,22</t>
+          <t>23,05; 25,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,69; 54,36</t>
+          <t>51,58; 54,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,05; 45,82</t>
+          <t>43,03; 45,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,25</t>
+          <t>25,41; 33,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 28,22</t>
+          <t>7,35; 23,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 34,5</t>
+          <t>14,55; 32,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 28,48</t>
+          <t>12,9; 24,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>27,05%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,25; 38,47</t>
+          <t>20,66; 36,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 39,87</t>
+          <t>13,71; 35,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 37,52</t>
+          <t>17,67; 33,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>28,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,25; 38,43</t>
+          <t>26,77; 36,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 33,13</t>
+          <t>18,48; 30,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 34,4</t>
+          <t>24,06; 32,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>22,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,95</t>
+          <t>19,8; 28,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 26,26</t>
+          <t>16,93; 24,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 26,82</t>
+          <t>19,6; 25,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,41%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 24,53</t>
+          <t>15,76; 24,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 22,99</t>
+          <t>16,17; 22,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,56</t>
+          <t>17,29; 22,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>32,13%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,0</t>
+          <t>10,68; 18,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 41,79</t>
+          <t>24,04; 35,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,13; 32,35</t>
+          <t>17,72; 27,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,5</t>
+          <t>9,1; 14,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,1; 31,43</t>
+          <t>19,52; 28,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,94; 42,32</t>
+          <t>21,69; 31,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,3; 42,4</t>
+          <t>22,97; 32,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,84; 57,21</t>
+          <t>15,36; 78,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,44</t>
+          <t>16,58; 22,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,22; 40,72</t>
+          <t>24,39; 31,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,4; 36,93</t>
+          <t>21,91; 28,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,52; 45,21</t>
+          <t>13,35; 63,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>38,11%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,69; 34,84</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39,57; 53,76</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31,14; 41,98</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 34,83</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 37,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,95; 55,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42,53; 53,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40,43; 46,91</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26,51; 34,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>44,25; 52,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39,52; 47,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35,38; 40,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>51,8%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>54,16%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53,06%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>20,06; 23,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>49,73; 53,75</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>39,59; 43,77</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>21,96; 25,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 24,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>24,55; 27,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>52,37; 55,84</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>45,03; 48,71</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>27,01; 39,35</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 45,15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>23,05; 25,45</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>51,58; 54,35</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>43,03; 45,77</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,41; 33,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 38,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 24,57</t>
+          <t>15,08; 24,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,73; 56,45</t>
+          <t>44,33; 56,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,43; 43,91</t>
+          <t>30,59; 43,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 23,87</t>
+          <t>7,39; 24,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,35</t>
+          <t>12,2; 20,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,13; 57,23</t>
+          <t>46,46; 57,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,66; 52,91</t>
+          <t>40,42; 52,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 32,29</t>
+          <t>14,99; 33,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 20,81</t>
+          <t>14,76; 21,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,02; 55,18</t>
+          <t>47,24; 55,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 46,53</t>
+          <t>37,52; 46,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 24,7</t>
+          <t>13,18; 25,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,09; 34,22</t>
+          <t>25,43; 34,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,13; 60,1</t>
+          <t>51,25; 60,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 61,53</t>
+          <t>50,44; 61,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 36,55</t>
+          <t>20,6; 36,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 39,07</t>
+          <t>30,07; 38,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 79,74</t>
+          <t>72,19; 79,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 69,66</t>
+          <t>60,9; 69,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 35,01</t>
+          <t>14,18; 35,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,15; 35,42</t>
+          <t>29,24; 35,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 69,44</t>
+          <t>63,08; 69,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,99; 64,62</t>
+          <t>57,7; 64,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 33,06</t>
+          <t>17,73; 32,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,23; 31,07</t>
+          <t>23,53; 31,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,02; 76,32</t>
+          <t>68,83; 76,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,37; 65,1</t>
+          <t>56,68; 65,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 36,87</t>
+          <t>27,13; 36,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,46; 33,52</t>
+          <t>26,57; 33,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,37; 80,07</t>
+          <t>73,34; 79,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,21; 68,79</t>
+          <t>61,02; 68,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 30,94</t>
+          <t>19,47; 30,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 31,24</t>
+          <t>26,21; 31,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,39; 77,43</t>
+          <t>72,23; 77,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,36; 65,91</t>
+          <t>60,37; 66,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,3</t>
+          <t>23,74; 32,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,9</t>
+          <t>12,83; 19,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 59,37</t>
+          <t>50,26; 59,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 45,55</t>
+          <t>36,71; 45,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 28,43</t>
+          <t>20,12; 27,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,4</t>
+          <t>15,77; 23,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 49,8</t>
+          <t>40,11; 49,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,86; 44,98</t>
+          <t>36,44; 45,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 24,77</t>
+          <t>17,12; 25,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 20,83</t>
+          <t>15,29; 20,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,16; 53,04</t>
+          <t>46,15; 53,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,5; 43,81</t>
+          <t>37,06; 43,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,6; 25,27</t>
+          <t>19,95; 25,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,25</t>
+          <t>11,35; 19,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,77; 35,09</t>
+          <t>25,55; 35,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 28,35</t>
+          <t>19,38; 28,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,76; 24,25</t>
+          <t>15,62; 23,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,4; 25,32</t>
+          <t>16,37; 25,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,43; 37,13</t>
+          <t>27,42; 37,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 31,19</t>
+          <t>22,07; 31,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 22,77</t>
+          <t>16,64; 22,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,76</t>
+          <t>14,7; 20,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,7; 34,52</t>
+          <t>27,95; 34,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,7</t>
+          <t>22,29; 28,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,36</t>
+          <t>16,69; 21,95</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 18,65</t>
+          <t>10,79; 18,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,04; 35,33</t>
+          <t>24,09; 35,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 27,05</t>
+          <t>17,84; 27,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,46</t>
+          <t>9,08; 14,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,52; 28,29</t>
+          <t>19,48; 28,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 31,05</t>
+          <t>21,39; 31,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,97; 32,12</t>
+          <t>22,56; 32,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 78,27</t>
+          <t>15,57; 76,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,59</t>
+          <t>16,3; 22,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,71</t>
+          <t>24,42; 31,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 28,64</t>
+          <t>21,61; 28,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 63,69</t>
+          <t>13,56; 63,53</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,69; 34,84</t>
+          <t>22,37; 34,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,57; 53,76</t>
+          <t>39,78; 53,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,14; 41,98</t>
+          <t>31,44; 42,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,43; 34,83</t>
+          <t>25,59; 34,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,45; 37,74</t>
+          <t>27,23; 37,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,95; 55,36</t>
+          <t>45,05; 55,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,53; 53,93</t>
+          <t>42,43; 53,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,43; 46,91</t>
+          <t>40,35; 47,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,51; 34,99</t>
+          <t>26,95; 35,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,25; 52,73</t>
+          <t>44,49; 53,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>39,52; 47,84</t>
+          <t>39,79; 47,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,38; 40,92</t>
+          <t>35,6; 40,98</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,24; 23,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>49,81; 53,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,52; 43,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,99; 24,78</t>
+          <t>21,13; 24,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,72; 27,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,36; 55,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,1; 48,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,81; 45,15</t>
+          <t>25,01; 46,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>23,03; 25,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,69; 54,52</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,1; 45,9</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,83; 38,73</t>
+          <t>23,99; 38,28</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas que requieren dedicación o cuidados especiales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48566</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>131023</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>82790</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25623</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47142</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>157324</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>113241</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33487</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>95708</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>288347</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>196031</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59111</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37898; 62343</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>115759; 147133</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68950; 97940</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13159; 43037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36044; 61207</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>140822; 174408</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>98324; 128750</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21866; 48225</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80750; 116019</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>266563; 314170</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>175852; 217450</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42697; 81357</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>126775</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>256302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>189753</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53653</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>169979</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>380964</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>285110</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97734</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>296753</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>637266</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>474863</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>151388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>109211; 146187</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>235872; 276230</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>170501; 206902</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39838; 70748</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>148163; 191331</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>361361; 399486</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>266021; 303986</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51912; 129454</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>269680; 325349</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>606135; 665202</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>447043; 502535</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>99212; 183837</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>149108</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>448757</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>320621</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>121202</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>193580</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>510424</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>382375</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>138106</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>342688</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>959181</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>702996</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>259308</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>130111; 172454</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>423857; 471919</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>297068; 342916</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>103851; 140870</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>171493; 217718</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>487357; 530071</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>358894; 404086</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100854; 159278</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>314085; 375541</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>924846; 989452</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>671516; 735131</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>213845; 290440</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>272517</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>199249</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>105524</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80844</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>236909</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201266</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>111273</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146921</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>509425</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>400515</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>216797</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52528; 81370</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>248602; 294504</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>178486; 223138</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88326; 122280</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65655; 97893</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>212685; 260371</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>181330; 225381</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>88292; 129000</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>126269; 170145</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>473024; 544217</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>364639; 429162</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>190462; 242278</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46854</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>108708</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81199</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>63815</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>71822</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>131117</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>112635</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69434</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>118676</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>239825</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>193834</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>133249</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36292; 61154</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92101; 127865</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66262; 97456</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51654; 78150</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56734; 88397</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>111974; 152714</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93369; 131139</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>59223; 81427</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>97956; 136638</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>214895; 266482</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>170474; 221601</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>114615; 150690</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41313</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>90932</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>72977</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42396</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81112</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>91975</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>100420</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>269918</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>122425</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>182907</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>173397</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>312314</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31455; 54871</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73954; 107500</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>58529; 89515</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33068; 52690</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>66810; 96470</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>75312; 110196</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>82957; 117663</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>94606; 465093</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>103447; 142152</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>160964; 206490</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>150349; 197895</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>131842; 617467</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>59396</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>115409</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>93530</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>83956</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>108043</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>193737</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>191771</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>185009</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>167439</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>309146</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>285301</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>268964</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>46944; 72909</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>99015; 132272</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>80261; 107232</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>71976; 96428</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>90933; 126125</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>173282; 214271</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>168256; 213540</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>171268; 200458</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>146543; 191477</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>281864; 337598</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>259354; 311990</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>251221; 289227</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>538090</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1423649</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1040119</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>496170</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>752521</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1702448</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1386818</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>904961</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1290610</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3126097</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2426937</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1401131</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>498707; 579750</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1368979; 1478154</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>987571; 1086042</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>458338; 541364</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>710346; 800129</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1645976; 1756874</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1331846; 1444516</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>733652; 1372674</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1229084; 1358587</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3045590; 3212455</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2350037; 2502291</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1224278; 1953711</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>